--- a/AOC24.xlsx
+++ b/AOC24.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gunavardhanvyas/dev/AOC/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gunavardhanvyas/dev/Advent_of_Cyber_2024/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AF99882-E403-EA4B-9570-5C8AA6111804}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FC5CB45-3B12-374B-ABCA-EBD579443748}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1800" yWindow="7760" windowWidth="13580" windowHeight="10860" xr2:uid="{47512894-CA65-9342-B8B5-666E620D7ECC}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="31">
   <si>
     <t>Day</t>
   </si>
@@ -114,6 +114,21 @@
   </si>
   <si>
     <t>CommProtocols</t>
+  </si>
+  <si>
+    <t>OPSEC</t>
+  </si>
+  <si>
+    <t>Log Analysis</t>
+  </si>
+  <si>
+    <t>AtomicRedTeam</t>
+  </si>
+  <si>
+    <t>XXE</t>
+  </si>
+  <si>
+    <t>Sandboxes</t>
   </si>
 </sst>
 </file>
@@ -157,7 +172,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -494,10 +509,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF0EB279-603D-1D44-9291-947B0FE884EF}">
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -530,22 +545,22 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -556,51 +571,51 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -608,36 +623,36 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="C5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="C6">
         <v>2</v>
@@ -655,53 +670,53 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="C7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E7">
         <v>1</v>
       </c>
       <c r="F7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C8">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E8">
         <v>1</v>
       </c>
       <c r="F8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -712,13 +727,13 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D9">
         <v>1</v>
@@ -727,21 +742,21 @@
         <v>1</v>
       </c>
       <c r="F9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C10">
         <v>0</v>
@@ -750,56 +765,56 @@
         <v>0</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H10">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C11">
         <v>2</v>
       </c>
       <c r="D11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H11">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="C12">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E12">
         <v>1</v>
@@ -808,18 +823,18 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C13">
         <v>2</v>
@@ -842,22 +857,22 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="C14">
         <v>2</v>
       </c>
       <c r="D14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E14">
         <v>1</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -868,42 +883,42 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E15">
         <v>1</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E16">
         <v>1</v>
@@ -920,39 +935,39 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C18">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D18">
         <v>0</v>
@@ -961,53 +976,199 @@
         <v>1</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H18">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19">
+        <v>2</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20">
+        <v>2</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>22</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>23</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
         <v>24</v>
       </c>
-      <c r="B19" t="s">
+      <c r="C24">
+        <v>2</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
         <v>25</v>
       </c>
-      <c r="C19">
-        <v>0</v>
-      </c>
-      <c r="D19">
-        <v>0</v>
-      </c>
-      <c r="E19">
-        <v>1</v>
-      </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-      <c r="G19">
-        <v>0</v>
-      </c>
-      <c r="H19">
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25">
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="D2:H24">
-    <cfRule type="colorScale" priority="2">
-      <colorScale>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color rgb="FFFF7128"/>
-        <color theme="6" tint="0.39997558519241921"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C2:C24">
+  <conditionalFormatting sqref="C2:C30">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="num" val="0"/>
@@ -1019,6 +1180,16 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="D2:H30">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color rgb="FFFF7128"/>
+        <color theme="6" tint="0.39997558519241921"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>